--- a/GlobalPrint.SQL/changelog.xlsx
+++ b/GlobalPrint.SQL/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Add admin role to database</t>
+  </si>
+  <si>
+    <t>2016_11_20_user_device_id.sql</t>
+  </si>
+  <si>
+    <t>Add user device id column</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +129,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +512,21 @@
         <v>42680</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42694</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalPrint.SQL/changelog.xlsx
+++ b/GlobalPrint.SQL/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Add user device id column</t>
+  </si>
+  <si>
+    <t>2016_11_19_transfers_registers_statistics.sql</t>
+  </si>
+  <si>
+    <t>08_11_2016_transfer_registers.sql</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,9 +135,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
@@ -525,7 +528,39 @@
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="6">
+        <v>42694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42694</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6">
+        <v>42694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42694</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
+        <v>42694</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GlobalPrint.SQL/changelog.xlsx
+++ b/GlobalPrint.SQL/changelog.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>№</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>08_11_2016_transfer_registers.sql</t>
+  </si>
+  <si>
+    <t>2017_02_19_user_created_on.sql</t>
+  </si>
+  <si>
+    <t>Колонка "Дата создания" у Пользователя</t>
   </si>
 </sst>
 </file>
@@ -108,15 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -128,13 +131,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,120 +463,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>42673</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>42673</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42680</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>42680</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>42694</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>42694</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>42694</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6">
+      <c r="D5" s="10"/>
+      <c r="E5" s="5">
         <v>42694</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>42694</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6">
+      <c r="D6" s="10"/>
+      <c r="E6" s="5">
         <v>42694</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42785</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GlobalPrint.SQL/changelog.xlsx
+++ b/GlobalPrint.SQL/changelog.xlsx
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,9 +136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,7 +463,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +471,7 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +485,7 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -505,7 +502,7 @@
       <c r="C2" s="5">
         <v>42673</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="6">
@@ -516,13 +513,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>42680</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -533,13 +530,13 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>42694</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5">
@@ -550,13 +547,13 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>42694</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5">
         <v>42694</v>
       </c>
@@ -565,13 +562,13 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>42694</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="5">
         <v>42694</v>
       </c>
@@ -580,16 +577,18 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>42785</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="5">
+        <v>42426</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GlobalPrint.SQL/changelog.xlsx
+++ b/GlobalPrint.SQL/changelog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Колонка "Дата создания" у Пользователя</t>
+  </si>
+  <si>
+    <t>2017_05_22_user_photo.sql</t>
+  </si>
+  <si>
+    <t>Колонка "Фото" у Пользователя</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +596,23 @@
         <v>42426</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42877</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
